--- a/report/reliability/comb/Instituto de Ciências Humanas, Comunicação e Artes - ICHCA-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Ciências Humanas, Comunicação e Artes - ICHCA-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.785582887216281</v>
+        <v>0.7654817263338749</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.807417767084261</v>
+        <v>0.7932192152293781</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9012404354084448</v>
+        <v>0.89698055589762</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2589201468290204</v>
+        <v>0.22784689590814394</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.192587004833065</v>
+        <v>3.8360392920903257</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.030843327799387546</v>
+        <v>0.031031591134542416</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.58179012345679</v>
+        <v>2.0014245014245016</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7981661777704195</v>
+        <v>0.6893844731979869</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20759601143662154</v>
+        <v>0.1714423688222917</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7649233309742864</v>
+        <v>0.7674717604467396</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7814352076083081</v>
+        <v>0.7886562403226018</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8824617943243599</v>
+        <v>0.8962840646719467</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.24529867275712394</v>
+        <v>0.23720544474068941</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.5753023122218623</v>
+        <v>3.731627759089893</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03370067032232521</v>
+        <v>0.03153209929020798</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04024247039621146</v>
+        <v>0.05351297016342775</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.19194238818432033</v>
+        <v>0.17703642115610632</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7682276020878439</v>
+        <v>0.7477878425260105</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7874654608098994</v>
+        <v>0.7715313902060512</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8834932290648475</v>
+        <v>0.8801956662504417</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.25196109935578026</v>
+        <v>0.21961213051838993</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.705117595524341</v>
+        <v>3.3769689013378255</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.033250101600788805</v>
+        <v>0.03300627409707394</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03879625148851276</v>
+        <v>0.054694316793183984</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.20900294128714553</v>
+        <v>0.16764453146337577</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7676864200345336</v>
+        <v>0.7538329465160941</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7832094105524012</v>
+        <v>0.7791371522911714</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8835566897023244</v>
+        <v>0.884227564841111</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24723253677393514</v>
+        <v>0.22718738101408217</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.6127463491292953</v>
+        <v>3.5276967601103104</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03336633729993249</v>
+        <v>0.03229555119711432</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03948255154417203</v>
+        <v>0.05354983947932113</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1943173148571399</v>
+        <v>0.1714423688222917</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.771295066088358</v>
+        <v>0.7498718452303853</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7906447877374546</v>
+        <v>0.7714239089015371</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.88431719009553</v>
+        <v>0.877314842734683</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2555782984727747</v>
+        <v>0.2195076648722882</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.77657082999172</v>
+        <v>3.37491075813889</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03271489234824977</v>
+        <v>0.03372988271642024</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.038624972372561364</v>
+        <v>0.043007873699303985</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.20900294128714553</v>
+        <v>0.17386828083609196</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7608162708162709</v>
+        <v>0.7230418778580258</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7942509764382435</v>
+        <v>0.7654492456693512</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8672238471495757</v>
+        <v>0.8747455603971538</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.25977220374599724</v>
+        <v>0.2138091567320436</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.8602903804296558</v>
+        <v>3.2634695541856567</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.034953054118200745</v>
+        <v>0.03762928577883497</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03740547573487426</v>
+        <v>0.04329636868177532</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.22054497306422347</v>
+        <v>0.1714423688222917</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7712728272452569</v>
+        <v>0.7336259489600124</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7996392038574269</v>
+        <v>0.7694172440755196</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8711222404905297</v>
+        <v>0.8773276064550889</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.26622622330440876</v>
+        <v>0.21757012775783863</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.990996338866701</v>
+        <v>3.3368377482985596</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03330579565928721</v>
+        <v>0.035886226516644984</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03644195979912839</v>
+        <v>0.042978829872818376</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.23650037110057098</v>
+        <v>0.17277256333993152</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7817688654574365</v>
+        <v>0.7676136828589324</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8079463070341875</v>
+        <v>0.7998064007657509</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.892374321983395</v>
+        <v>0.8993892105667954</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2766430716316142</v>
+        <v>0.24977327678106984</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.2068772256204925</v>
+        <v>3.995164699695956</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.031379919046512106</v>
+        <v>0.03147700527070587</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04115801433482415</v>
+        <v>0.051082296570057535</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.24584346260246562</v>
+        <v>0.1784234717879819</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7939588079516151</v>
+        <v>0.7573836881474352</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8121168283183438</v>
+        <v>0.7865006001069977</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8936466273582072</v>
+        <v>0.8868890426858544</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2820994445678783</v>
+        <v>0.23488193238889116</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.322456455516787</v>
+        <v>3.6838539148173823</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.029431541419573985</v>
+        <v>0.03141046506953929</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03887499447708766</v>
+        <v>0.05333126095371583</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.24584346260246562</v>
+        <v>0.17277256333993152</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7608723680278286</v>
+        <v>0.773694034880017</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7881722097332761</v>
+        <v>0.7932037843835494</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8924319275572541</v>
+        <v>0.8926703163626862</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2527588092963451</v>
+        <v>0.242217499531781</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.720815898333476</v>
+        <v>3.835678433568253</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.03472247437300435</v>
+        <v>0.02886902709622366</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04551405210664899</v>
+        <v>0.052229866181750004</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1798781799923745</v>
+        <v>0.1755817129517137</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7780908483360758</v>
+        <v>0.7377700358230991</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8007296316060213</v>
+        <v>0.7737653467893869</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9001217477835789</v>
+        <v>0.8875010209191763</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2675606128007599</v>
+        <v>0.22179943813436973</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>4.018307579092208</v>
+        <v>3.4201893291256793</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.032054445339356454</v>
+        <v>0.0346944484503256</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.043647948876055165</v>
+        <v>0.05743158187058785</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.20618908158609756</v>
+        <v>0.16254321062409782</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7596527715184515</v>
+        <v>0.7599439391098244</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7840965071207363</v>
+        <v>0.7917117801405421</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8760309837311994</v>
+        <v>0.8960992616830583</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.24820760922083657</v>
+        <v>0.2405563004885154</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.631699036750711</v>
+        <v>3.8010396395665027</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03464825022188703</v>
+        <v>0.03145525421263274</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.041929180073803675</v>
+        <v>0.05418884750919602</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.18521350743494874</v>
+        <v>0.17277256333993152</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7651707375491964</v>
+        <v>0.7339799554719784</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7890047751520525</v>
+        <v>0.7683432759979328</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8779763397199927</v>
+        <v>0.8714213605032556</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2537031800207911</v>
+        <v>0.21654306035598636</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.7394437514907937</v>
+        <v>3.3167320279944774</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.033836514270866355</v>
+        <v>0.03496467277031295</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04159548653680741</v>
+        <v>0.05413108123794378</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.18521350743494874</v>
+        <v>0.15388785805682476</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7398249580142051</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7733050471353521</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8736338752268085</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.22134623348992563</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.4112142214170382</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03410553204381549</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.054137567613203263</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.15388785805682476</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>108.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6056605345911726</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6765315916073078</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6540099786837564</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5293662882645357</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.4814814814814814</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0455198723085932</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5580701041566146</v>
+        <v>0.3224800617351529</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.622607838777031</v>
+        <v>0.4472997224727664</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5992512286244199</v>
+        <v>0.38267271624171395</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4635734573607229</v>
+        <v>0.30582774912305444</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9537037037037037</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1870347825314242</v>
+        <v>0.1651016867817926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5842211038046995</v>
+        <v>0.531663035559675</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6608794559018388</v>
+        <v>0.6139566218413027</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6375533365302409</v>
+        <v>0.5899247341236132</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5128426516422904</v>
+        <v>0.44000938304851</v>
       </c>
       <c r="G29" t="n" s="89">
         <v>3.4814814814814814</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9519432312599896</v>
+        <v>1.0455198723085932</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5261992859183044</v>
+        <v>0.47096402442912594</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.593331275915979</v>
+        <v>0.5421982400151052</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5682568451765742</v>
+        <v>0.5091397490064865</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4226343811351367</v>
+        <v>0.358262251551232</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8333333333333335</v>
+        <v>3.9537037037037037</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2417955044073703</v>
+        <v>1.1870347825314242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6689107972302243</v>
+        <v>0.6686820171095442</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5593870203211088</v>
+        <v>0.6149461977932731</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5734970742157902</v>
+        <v>0.6383389149185417</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5225888393358715</v>
+        <v>0.6361052706861082</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.7037037037037037</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.042809405335752</v>
+        <v>0.4992205762993179</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6214303462598153</v>
+        <v>0.7369332778771414</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5071500537630462</v>
+        <v>0.6689266863856833</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.517582545770588</v>
+        <v>0.6942822689155903</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.45650866422919495</v>
+        <v>0.6015251254251995</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.7777777777777777</v>
+        <v>1.7037037037037037</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.1017719864119524</v>
+        <v>2.042809405335752</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.42525361507659387</v>
+        <v>0.697331777041471</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.42283909796504937</v>
+        <v>0.6332999840001003</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.36452814960258373</v>
+        <v>0.6573339224983081</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.30265791140817094</v>
+        <v>0.5424520216295547</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.7037037037037037</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.320289257879551</v>
+        <v>2.1017719864119524</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3823355270368444</v>
+        <v>0.24086119712425894</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.37867679445475483</v>
+        <v>0.32824791147404336</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.31852382539819524</v>
+        <v>0.2521980500079638</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.22002433082098427</v>
+        <v>0.21461086501441914</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.861111111111111</v>
+        <v>0.9351851851851852</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.665809748554757</v>
+        <v>0.2473465973441365</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6278295656185118</v>
+        <v>0.4514699767441445</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6161514053697272</v>
+        <v>0.46930975192499874</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5600362566316299</v>
+        <v>0.42621595402195644</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5143977677333968</v>
+        <v>0.322636487762222</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4166666666666667</v>
+        <v>2.7037037037037037</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5414824761569836</v>
+        <v>1.320289257879551</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4802791846144492</v>
+        <v>0.3883042959304641</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.496349891342485</v>
+        <v>0.39982182829124735</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4210331306872539</v>
+        <v>0.34403431771948223</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.34969616642340273</v>
+        <v>0.21455102022074427</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.8796296296296295</v>
+        <v>2.861111111111111</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4643271721685913</v>
+        <v>1.665809748554757</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.640352444059507</v>
+        <v>0.6238529027729859</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6529875016957045</v>
+        <v>0.5932368245002004</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6422954686330332</v>
+        <v>0.5409489348435376</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5514102218758506</v>
+        <v>0.5005211837917114</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.9537037037037037</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2706923512695507</v>
+        <v>1.5414824761569836</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>108.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5890690849670955</v>
+        <v>0.4516763868876464</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6085079420202849</v>
+        <v>0.41555793567195454</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5945555970122721</v>
+        <v>0.34347821450437943</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.49631506956428323</v>
+        <v>0.3074691978969186</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>1.8796296296296295</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4643271721685913</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>108.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6516915673615097</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6430291269274881</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6346998210239625</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5579144680944953</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.9537037037037037</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2706923512695507</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>108.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6040796070075652</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5975299144699538</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5854540921278742</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.506598325900355</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.9351851851851851</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2172678780290203</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.046296296296296294</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.35185185185185186</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.46296296296296297</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.10185185185185185</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="C45" t="n" s="110">
-        <v>0.06481481481481481</v>
-      </c>
-      <c r="D45" t="n" s="111">
-        <v>0.037037037037037035</v>
-      </c>
       <c r="E45" t="n" s="112">
-        <v>0.3425925925925926</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.46296296296296297</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.09259259259259259</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="C46" t="n" s="110">
         <v>0.046296296296296294</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.07407407407407407</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3611111111111111</v>
+        <v>0.35185185185185186</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.037037037037037035</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.48148148148148145</v>
+        <v>0.10185185185185185</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.5555555555555556</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.027777777777777776</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.009259259259259259</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.10185185185185185</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.17592592592592593</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.12962962962962962</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.5555555555555556</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.009259259259259259</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.009259259259259259</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.12962962962962962</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.12037037037037036</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.17592592592592593</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.06481481481481481</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.18518518518518517</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.046296296296296294</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4537037037037037</v>
+        <v>0.10185185185185185</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.18518518518518517</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.06481481481481481</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06481481481481481</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.18518518518518517</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.24074074074074073</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.1111111111111111</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.12962962962962962</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.26851851851851855</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.46296296296296297</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.12037037037037036</v>
+        <v>0.9351851851851852</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.08333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2037037037037037</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.12962962962962962</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.25</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.23148148148148148</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05555555555555555</v>
+        <v>0.046296296296296294</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.3148148148148148</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14814814814814814</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2037037037037037</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.09259259259259259</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.37037037037037035</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.21296296296296297</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.12037037037037036</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.26851851851851855</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.19444444444444445</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.06481481481481481</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4722222222222222</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.14814814814814814</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.12037037037037036</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.25</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.23148148148148148</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.3148148148148148</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.06481481481481481</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8619438727898597</v>
+        <v>0.8630362487529099</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8665028326964896</v>
+        <v>0.9800073271329186</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.860200436944327</v>
+        <v>0.9705936586535856</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6187133813482042</v>
+        <v>0.9423280156328513</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.490795649067714</v>
+        <v>49.018324545615414</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02166256546182383</v>
+        <v>0.004646297608506889</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6875</v>
+        <v>1.308641975308642</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9354923987063621</v>
+        <v>1.520851065029532</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6287644461759514</v>
+        <v>0.9401016297123813</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8279542873224714</v>
+        <v>0.9689239717490654</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8340441492276411</v>
+        <v>0.9691261687685409</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7807768033224145</v>
+        <v>0.9401016297123813</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6262007821241737</v>
+        <v>0.9401016297123812</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.0256989756371855</v>
+        <v>31.389890082091384</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.02785186571785512</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.007055570786663403</v>
-      </c>
+        <v>0.005959852542146447</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6287361183689708</v>
+        <v>0.9401016297123813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8164447017950203</v>
+        <v>0.598690364826941</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8261820195567706</v>
+        <v>0.9744087513237183</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7771348284722077</v>
+        <v>0.950094643047487</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6130602355055278</v>
+        <v>0.950094643047487</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.75314474055007</v>
+        <v>38.07585802668606</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.030612343298570786</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.010940961223150768</v>
-      </c>
+        <v>0.011982977473438466</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6287927739829321</v>
+        <v>0.950094643047487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8218883912593469</v>
+        <v>0.6034105815478792</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8250583053990449</v>
+        <v>0.9673623374200484</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7749234655052348</v>
+        <v>0.9367877741386861</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6112070953675808</v>
+        <v>0.9367877741386859</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.716190198574543</v>
+        <v>29.6394490582873</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.029752882682591256</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.01042266660673202</v>
-      </c>
+        <v>0.013657523302186777</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6287361183689708</v>
+        <v>0.936787774138686</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8298111281265951</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8329689342001474</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7787590419221957</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6243854123955344</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.986910250565394</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.027870443644969444</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.0066108283269658875</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6287927739829321</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>108.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.966516239647922</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9813444046201409</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9681646781833577</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9579874347913515</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4992205762993179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>108.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8289210164098377</v>
+        <v>0.9832986522437711</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8383603631601955</v>
+        <v>0.9779474572199559</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.774368092653747</v>
+        <v>0.9592948174529751</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7007991461978326</v>
+        <v>0.9468226792471679</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4814814814814814</v>
+        <v>1.7037037037037037</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0455198723085932</v>
+        <v>2.042809405335752</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>108.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8600234413024012</v>
+        <v>0.9855287249343777</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8500234882526583</v>
+        <v>0.9824708909659668</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7895247789858221</v>
+        <v>0.970727274402812</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7286135370967635</v>
+        <v>0.9516052480897709</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9537037037037037</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1870347825314242</v>
+        <v>2.1017719864119524</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>108.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8369424593793199</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.851668275632513</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7931197258600107</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7288165038605633</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4814814814814814</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9519432312599896</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>108.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8517640368821847</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8399716267437172</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7778577346713754</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7043799383136377</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2417955044073703</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.10185185185185185</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.17592592592592593</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.027777777777777776</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.046296296296296294</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.009259259259259259</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.35185185185185186</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.46296296296296297</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.10185185185185185</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06481481481481481</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3425925925925926</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.46296296296296297</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.09259259259259259</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.046296296296296294</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.037037037037037035</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.48148148148148145</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7769592054252217</v>
+        <v>0.6600317460317462</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7897199851977812</v>
+        <v>0.7853532033411901</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.652510142726628</v>
+        <v>0.7225211809390497</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.652510142726628</v>
+        <v>0.5494694770990046</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.75556367513366</v>
+        <v>3.658816323215583</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.041004767810231484</v>
+        <v>0.030564241574282384</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.7824074074074074</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3590698237173138</v>
+        <v>0.9532150330712923</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6525101427266279</v>
+        <v>0.5416245337451944</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.7769592054252217</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.7897199851977812</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.652510142726628</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.652510142726628</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.4257694863611243</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.652510142726628</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.652510142726628</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.75556367513366</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.041004767810231484</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.652510142726628</v>
+        <v>0.6525101427266279</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4257694863611243</v>
+        <v>0.2332075471698114</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.652510142726628</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4257694863611243</v>
-      </c>
+        <v>0.6247431108729551</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.45427375482519183</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.45427375482519183</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.6648411500886418</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03853563280742993</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.652510142726628</v>
+        <v>0.45427375482519183</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.32783992942780404</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7026672472957882</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5416245337451943</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5416245337451944</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.363235267238808</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.04014098132697186</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5416245337451944</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>108.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8856230094492669</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9089857377117168</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7342614074999967</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.652510142726628</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.7037037037037037</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.320289257879551</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>108.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9297947156760126</v>
+        <v>0.6011869447802883</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9089857377117169</v>
+        <v>0.7953858756244837</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7342614074999967</v>
+        <v>0.6127451403914532</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6525101427266279</v>
+        <v>0.5414860507249111</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9351851851851852</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2473465973441365</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>108.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8886473362806413</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8743851031274829</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7949761886065029</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6814067291428548</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.7037037037037037</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.320289257879551</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>108.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9230778144108109</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.839574924585002</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7252539534932312</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6629230134776658</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.861111111111111</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.665809748554757</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.06481481481481481</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9351851851851852</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.06481481481481481</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.18518518518518517</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.046296296296296294</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4537037037037037</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.18518518518518517</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.06481481481481481</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.06481481481481481</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.18518518518518517</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.24074074074074073</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.1111111111111111</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.12962962962962962</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.26851851851851855</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9005039331366766</v>
+        <v>0.69140970787843</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9009604878692368</v>
+        <v>0.8252366158750197</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8197707888795548</v>
+        <v>0.7672548923096231</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8197707888795547</v>
+        <v>0.6115007388443064</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.096980270658904</v>
+        <v>4.722022407650682</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.019094363656430205</v>
+        <v>0.024695309240507942</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.9444444444444444</v>
+        <v>2.802469135802469</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1866337634137671</v>
+        <v>0.722055789327547</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8197707888795547</v>
+        <v>0.5656224536353739</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8197707888795547</v>
+        <v>0.8219836629932165</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8197707888795547</v>
+        <v>0.8258770308799286</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6720241463002077</v>
+        <v>0.7033990924297049</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8197707888795547</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8197707888795547</v>
-      </c>
+        <v>0.7033990924297049</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.743067701254405</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.03372281953000441</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8197707888795547</v>
+        <v>0.7033990924297048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6720241463002077</v>
+        <v>0.2674321503131525</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8197707888795547</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6720241463002077</v>
-      </c>
+        <v>0.7225528125532426</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.565622453635374</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.565622453635374</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.60428955579844</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.032112656151418874</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8197707888795547</v>
+        <v>0.5656224536353739</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.2967835295665331</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7224371161336001</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5654806704678408</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5654806704678408</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.6027871813053096</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.03492875256653548</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5654806704678407</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>108.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9558859143670404</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9538791298900386</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.863653557620115</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8197707888795547</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.9537037037037037</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2706923512695507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>108.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9518287861428418</v>
+        <v>0.659107192043946</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9538791298900386</v>
+        <v>0.8252280142781182</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8636535576201149</v>
+        <v>0.6660556471462353</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8197707888795547</v>
+        <v>0.6126050656038533</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9351851851851851</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2172678780290203</v>
+        <v>0.1651016867817926</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>108.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9112134651897528</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8785793236353338</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7979368066357457</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7209484123066883</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.4814814814814814</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0455198723085932</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>108.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9306010988821805</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8786342263946036</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7980478372173478</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7225874381599421</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.9537037037037037</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1870347825314242</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.046296296296296294</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.35185185185185186</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.10185185185185185</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.009259259259259259</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.037037037037037035</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.2037037037037037</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.09259259259259259</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.21296296296296297</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.12037037037037036</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06481481481481481</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.12037037037037036</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9689239717490654</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9691261687685409</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9401016297123813</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9401016297123812</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>31.389890082091384</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.005959852542146447</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.7407407407407407</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>2.0410294743913</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9401016297123813</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6684849102773247</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6690715091165342</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.021800864985491</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.06368775195321495</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.6481481481481481</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.3028711272066351</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.50271033620477</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9401016297123813</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9401016297123813</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.8837910741878754</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9401016297123813</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9401016297123813</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9401016297123813</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.25271768212711276</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.50271033620477</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.8837910741878754</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9401016297123813</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.8837910741878754</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9401016297123813</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.25271768212711276</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.25271768212711276</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.50271033620477</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>108.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9844759043090152</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9849115771764442</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9549588221227805</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9401016297123812</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.7037037037037037</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>2.042809405335752</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8740752763762822</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8668074573412397</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.614584419885455</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5414824761569836</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>108.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9853410957623305</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9849115771764442</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9549588221227805</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9401016297123814</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.1017719864119524</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8593506676336399</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8668074573412397</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6145844198854553</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.50271033620477</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>1.8796296296296295</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4643271721685913</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.10185185185185185</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.17592592592592593</v>
-      </c>
-      <c r="G23" t="n" s="573">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="F23" t="n" s="573">
         <v>0.12962962962962962</v>
       </c>
-      <c r="H23" t="n" s="574">
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.009259259259259259</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.12962962962962962</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.12037037037037036</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.17592592592592593</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.25</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.23148148148148148</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.3148148148148148</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6684849102773247</v>
+        <v>0.9005039331366766</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6690715091165342</v>
+        <v>0.9009604878692368</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795548</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.021800864985491</v>
+        <v>9.096980270658904</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.06368775195321495</v>
+        <v>0.019094363656430205</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.6481481481481481</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.3028711272066351</v>
+        <v>1.1866337634137671</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.25271768212711276</v>
+        <v>0.6720241463002077</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.25271768212711276</v>
+        <v>0.6720241463002077</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.25271768212711276</v>
+        <v>0.6720241463002077</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>108.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8740752763762822</v>
+        <v>0.9558859143670404</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8668074573412397</v>
+        <v>0.9538791298900386</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.614584419885455</v>
+        <v>0.863653557620115</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.4166666666666667</v>
+        <v>1.9537037037037037</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5414824761569836</v>
+        <v>1.2706923512695507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>108.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8593506676336399</v>
+        <v>0.9518287861428418</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8668074573412397</v>
+        <v>0.9538791298900386</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6145844198854553</v>
+        <v>0.8636535576201149</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.50271033620477</v>
+        <v>0.8197707888795547</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>1.8796296296296295</v>
+        <v>1.9351851851851851</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4643271721685913</v>
+        <v>1.2172678780290203</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.46296296296296297</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="C23" t="n" s="684">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="D23" t="n" s="685">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="E23" t="n" s="686">
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="F23" t="n" s="687">
         <v>0.12037037037037036</v>
-      </c>
-      <c r="D23" t="n" s="685">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E23" t="n" s="686">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="F23" t="n" s="687">
-        <v>0.12962962962962962</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.25</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.23148148148148148</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05555555555555555</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.3148148148148148</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14814814814814814</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.802479865357964</v>
+        <v>0.7873076087521195</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8231782112302785</v>
+        <v>0.8199072549679941</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9067229543040289</v>
+        <v>0.9069673302866563</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.31765819651074145</v>
+        <v>0.31284203208758965</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.6554116263483785</v>
+        <v>4.552694528712306</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.028770996088749213</v>
+        <v>0.028004488462341073</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.5416666666666665</v>
+        <v>1.951851851851852</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8727574734579105</v>
+        <v>0.8071504603836097</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2699186112675585</v>
+        <v>0.25373040810220704</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7834024559367958</v>
+        <v>0.771561117946813</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7983969292202732</v>
+        <v>0.7987063642526787</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8875584133388574</v>
+        <v>0.8849228442292538</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.30556851751048814</v>
+        <v>0.3059768398575163</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.9602419057029556</v>
+        <v>3.9678669486365408</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.03134822864308339</v>
+        <v>0.031164177300352373</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.040298941733914184</v>
+        <v>0.03852837091681078</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.265962511608379</v>
+        <v>0.2649585533511212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7850457080510787</v>
+        <v>0.7399049536866691</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.802324569601309</v>
+        <v>0.7905203499804548</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8873934793909429</v>
+        <v>0.8816661709454596</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3108094442649281</v>
+        <v>0.295429165098034</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.058797636019323</v>
+        <v>3.7737333908410506</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.031030015245439975</v>
+        <v>0.03536162511137611</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03889520042485887</v>
+        <v>0.04093223174747483</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2700482956150819</v>
+        <v>0.25673476742092205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7855965141836887</v>
+        <v>0.7533568866458409</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7994208820670285</v>
+        <v>0.7955316901466037</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8877859814300315</v>
+        <v>0.8852115038698325</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.3069226641216933</v>
+        <v>0.30182405498293297</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.985563852834247</v>
+        <v>3.89073343794449</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.031107272093964928</v>
+        <v>0.03299934201674908</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03932240877176716</v>
+        <v>0.039420273254656114</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2681326101543363</v>
+        <v>0.25673476742092205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7910316702615419</v>
+        <v>0.7927488484511889</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8083876737718287</v>
+        <v>0.8156436767199924</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8897058745463734</v>
+        <v>0.9074980373702922</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3191551650097682</v>
+        <v>0.3295728967457248</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.218870934269663</v>
+        <v>4.424278279195015</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.03010882011825813</v>
+        <v>0.028620492786227327</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03671244920881311</v>
+        <v>0.057483973957593096</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2748694909410758</v>
+        <v>0.26868018605954924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7794938777952448</v>
+        <v>0.7736286750933501</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8033642032234555</v>
+        <v>0.8030642415747553</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8787717554448566</v>
+        <v>0.8920108088604459</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.31221812500148666</v>
+        <v>0.31181074972183903</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.085544017890052</v>
+        <v>4.077797998678804</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.032173527367746056</v>
+        <v>0.02921091680648821</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04172747380986375</v>
+        <v>0.05787332574887919</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.26291318354285226</v>
+        <v>0.24145332616287551</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7863023674593507</v>
+        <v>0.7780611044222742</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8097755894873261</v>
+        <v>0.8069093719881881</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8814236082326318</v>
+        <v>0.8938751321922995</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.32111075573522574</v>
+        <v>0.317090987964531</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.256948870572916</v>
+        <v>4.178915260137988</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.031228336040182766</v>
+        <v>0.028592655515024906</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.03995984419420794</v>
+        <v>0.05723800288544665</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2748694909410758</v>
+        <v>0.26346075944806513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7777690414599436</v>
+        <v>0.7594697899439184</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.811318032727189</v>
+        <v>0.8026679090847522</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8672654027759976</v>
+        <v>0.9006041215188522</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3233043804609197</v>
+        <v>0.3112736567764677</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.299923540409789</v>
+        <v>4.067599473364371</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.032948478691119075</v>
+        <v>0.03138209108269308</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03494778229408113</v>
+        <v>0.0645116941823275</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2748694909410758</v>
+        <v>0.20025319822161874</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7904254583189209</v>
+        <v>0.7822524972174868</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8175974975799215</v>
+        <v>0.8188088862137715</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8717395050860931</v>
+        <v>0.9088354649277411</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3324621185348387</v>
+        <v>0.3342719829817767</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.482380925328368</v>
+        <v>4.519034455408294</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.030866532822437395</v>
+        <v>0.027791241648060728</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.032534103425178554</v>
+        <v>0.059285470524318526</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2762669722951266</v>
+        <v>0.25673476742092205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7773933989339894</v>
+        <v>0.7589508148892544</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8045356022982155</v>
+        <v>0.7990191686712559</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9000435333688309</v>
+        <v>0.8778700281282283</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.31381629600197225</v>
+        <v>0.3063903962597818</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.116021187273588</v>
+        <v>3.9755988836781224</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.03283621794643982</v>
+        <v>0.0310830444661815</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04868434125770987</v>
+        <v>0.058192481482801726</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.24612487191382282</v>
+        <v>0.20025319822161874</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7948689011523237</v>
+        <v>0.7663034997375552</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8167568370299142</v>
+        <v>0.805237548440613</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9065562764662782</v>
+        <v>0.8813137806680658</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3312144984660933</v>
+        <v>0.3147795904872928</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.457229529285347</v>
+        <v>4.134459912541613</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.02992045694734722</v>
+        <v>0.03008536142097719</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04557457236720776</v>
+        <v>0.05695356256298382</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.27282412113280685</v>
+        <v>0.2604564001293501</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6128208772866045</v>
+        <v>0.7146223690748241</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.69126462847856</v>
+        <v>0.6577142698102897</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6607192574704057</v>
+        <v>0.678143726882181</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5293326575054179</v>
+        <v>0.6822602642996524</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.4814814814814814</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0455198723085932</v>
+        <v>0.4992205762993179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5900547137062169</v>
+        <v>0.789895617025379</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6608923417427476</v>
+        <v>0.7191865108412714</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6311037528551091</v>
+        <v>0.7415959992383985</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4901818384935816</v>
+        <v>0.6586577695108733</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.9537037037037037</v>
+        <v>1.7037037037037037</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1870347825314242</v>
+        <v>2.042809405335752</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.598818566348457</v>
+        <v>0.7505764374053036</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.683417060465325</v>
+        <v>0.6819168546056452</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6535464914407064</v>
+        <v>0.7030789320756804</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5216950467014603</v>
+        <v>0.5957869805810383</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4814814814814814</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9519432312599896</v>
+        <v>2.1017719864119524</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5367992723185476</v>
+        <v>0.36857752081220474</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6125271125846485</v>
+        <v>0.5201955721363094</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5792465667332667</v>
+        <v>0.44324354509431535</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.4235763864611188</v>
+        <v>0.3507027830216284</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8333333333333335</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2417955044073703</v>
+        <v>0.1651016867817926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6380076935209557</v>
+        <v>0.5305160459030713</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6527287368586067</v>
+        <v>0.6237140260115063</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6356183787085773</v>
+        <v>0.5850094189498692</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5387380507653013</v>
+        <v>0.42761039951904956</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.9537037037037037</v>
+        <v>3.4814814814814814</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2706923512695507</v>
+        <v>1.0455198723085932</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5787718133512895</v>
+        <v>0.4990252562158979</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6011940478359051</v>
+        <v>0.5929406010285295</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5802212290677844</v>
+        <v>0.5491637936055546</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.47425738871617706</v>
+        <v>0.37629375397545933</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9351851851851851</v>
+        <v>3.9537037037037037</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2172678780290203</v>
+        <v>1.1870347825314242</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.7099379052704772</v>
+        <v>0.6592539429099921</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5884815253601611</v>
+        <v>0.6268442236850955</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6007204628506798</v>
+        <v>0.556577647915465</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5598734477089645</v>
+        <v>0.5286388094505532</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.7037037037037037</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>2.042809405335752</v>
+        <v>1.5414824761569836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.662339108263071</v>
+        <v>0.5082289866018529</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5354104828395037</v>
+        <v>0.49280912267565874</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5440274145153501</v>
+        <v>0.40338995745329786</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4903425793346164</v>
+        <v>0.3547863624383187</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.7777777777777777</v>
+        <v>1.8796296296296295</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>2.1017719864119524</v>
+        <v>1.4643271721685913</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.6601185427248276</v>
+        <v>0.6520593760715896</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.6434669955380498</v>
+        <v>0.6553040477073452</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.573808684195069</v>
+        <v>0.6380139335918666</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.5412382641611048</v>
+        <v>0.5464015583002475</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.4166666666666667</v>
+        <v>1.9537037037037037</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5414824761569836</v>
+        <v>1.2706923512695507</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>108.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5290211495054514</v>
+        <v>0.5970064175954096</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5426407068515425</v>
+        <v>0.6064115115447504</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.45620099576335127</v>
+        <v>0.5844736320609653</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.39167395938583355</v>
+        <v>0.48606655481166217</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>1.8796296296296295</v>
+        <v>1.9351851851851851</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4643271721685913</v>
+        <v>1.2172678780290203</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.027777777777777776</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.046296296296296294</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.009259259259259259</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.35185185185185186</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.46296296296296297</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.10185185185185185</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C40" t="n" s="798">
         <v>0.027777777777777776</v>
       </c>
-      <c r="C40" t="n" s="798">
+      <c r="D40" t="n" s="799">
         <v>0.009259259259259259</v>
       </c>
-      <c r="D40" t="n" s="799">
-        <v>0.037037037037037035</v>
-      </c>
       <c r="E40" t="n" s="800">
-        <v>0.2777777777777778</v>
+        <v>0.10185185185185185</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.2037037037037037</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4444444444444444</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06481481481481481</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.037037037037037035</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3425925925925926</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.46296296296296297</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.09259259259259259</v>
+        <v>0.17592592592592593</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="C42" t="n" s="798">
+        <v>0.9722222222222222</v>
+      </c>
+      <c r="D42" t="n" s="799">
         <v>0.0</v>
       </c>
-      <c r="C42" t="n" s="798">
-        <v>0.046296296296296294</v>
-      </c>
-      <c r="D42" t="n" s="799">
-        <v>0.07407407407407407</v>
-      </c>
       <c r="E42" t="n" s="800">
-        <v>0.3611111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.037037037037037035</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.48148148148148145</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.2037037037037037</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.09259259259259259</v>
+        <v>0.046296296296296294</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.37037037037037035</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.21296296296296297</v>
+        <v>0.35185185185185186</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.12037037037037036</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.10185185185185185</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.19444444444444445</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.06481481481481481</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4722222222222222</v>
+        <v>0.037037037037037035</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.14814814814814814</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.12037037037037036</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.5555555555555556</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.027777777777777776</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.009259259259259259</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.10185185185185185</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.17592592592592593</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.12962962962962962</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.5555555555555556</v>
+        <v>0.25</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.009259259259259259</v>
+        <v>0.23148148148148148</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.009259259259259259</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.12962962962962962</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.12037037037037036</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.17592592592592593</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.46296296296296297</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="C47" t="n" s="798">
+        <v>0.09259259259259259</v>
+      </c>
+      <c r="D47" t="n" s="799">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="E47" t="n" s="800">
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="F47" t="n" s="801">
         <v>0.12037037037037036</v>
-      </c>
-      <c r="D47" t="n" s="799">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="E47" t="n" s="800">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.12962962962962962</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.25</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.23148148148148148</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05555555555555555</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.3148148148148148</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14814814814814814</v>
+        <v>0.12037037037037036</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
